--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Sostdc1-Lrp6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Sostdc1-Lrp6.xlsx
@@ -534,10 +534,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.313356</v>
+        <v>0.6311703333333334</v>
       </c>
       <c r="H2">
-        <v>0.9400680000000001</v>
+        <v>1.893511</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.999936</v>
+        <v>8.676671000000001</v>
       </c>
       <c r="N2">
-        <v>41.999808</v>
+        <v>26.030013</v>
       </c>
       <c r="O2">
-        <v>0.2017049292741484</v>
+        <v>0.1325240072999665</v>
       </c>
       <c r="P2">
-        <v>0.2017049292741485</v>
+        <v>0.1325240072999665</v>
       </c>
       <c r="Q2">
-        <v>4.386963945216</v>
+        <v>5.476457327293668</v>
       </c>
       <c r="R2">
-        <v>39.48267550694401</v>
+        <v>49.28811594564301</v>
       </c>
       <c r="S2">
-        <v>0.2017049292741484</v>
+        <v>0.1325240072999665</v>
       </c>
       <c r="T2">
-        <v>0.2017049292741485</v>
+        <v>0.1325240072999665</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,10 +596,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.313356</v>
+        <v>0.6311703333333334</v>
       </c>
       <c r="H3">
-        <v>0.9400680000000001</v>
+        <v>1.893511</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>37.74750533333333</v>
+        <v>37.74750533333334</v>
       </c>
       <c r="N3">
         <v>113.242516</v>
       </c>
       <c r="O3">
-        <v>0.5438494785644405</v>
+        <v>0.5765403197090441</v>
       </c>
       <c r="P3">
-        <v>0.5438494785644407</v>
+        <v>0.576540319709044</v>
       </c>
       <c r="Q3">
-        <v>11.828407281232</v>
+        <v>23.82510552374178</v>
       </c>
       <c r="R3">
-        <v>106.455665531088</v>
+        <v>214.425949713676</v>
       </c>
       <c r="S3">
-        <v>0.5438494785644405</v>
+        <v>0.5765403197090441</v>
       </c>
       <c r="T3">
-        <v>0.5438494785644407</v>
+        <v>0.576540319709044</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,10 +658,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.313356</v>
+        <v>0.6311703333333334</v>
       </c>
       <c r="H4">
-        <v>0.9400680000000001</v>
+        <v>1.893511</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.66056</v>
+        <v>19.04827033333333</v>
       </c>
       <c r="N4">
-        <v>52.98168</v>
+        <v>57.144811</v>
       </c>
       <c r="O4">
-        <v>0.2544455921614109</v>
+        <v>0.2909356729909895</v>
       </c>
       <c r="P4">
-        <v>0.2544455921614109</v>
+        <v>0.2909356729909895</v>
       </c>
       <c r="Q4">
-        <v>5.53404243936</v>
+        <v>12.02270313571345</v>
       </c>
       <c r="R4">
-        <v>49.80638195424</v>
+        <v>108.204328221421</v>
       </c>
       <c r="S4">
-        <v>0.2544455921614109</v>
+        <v>0.2909356729909895</v>
       </c>
       <c r="T4">
-        <v>0.2544455921614109</v>
+        <v>0.2909356729909895</v>
       </c>
     </row>
   </sheetData>
